--- a/data/Nanodrop/Past_Sample_Data.xlsx
+++ b/data/Nanodrop/Past_Sample_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2917054de0bc48a0/Documents/Barshis_Lab/2021-June_Mote/data/Nanodrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{90159ADA-CDDF-4DF5-B46D-974310B1152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E815C7D-DB63-466C-9294-82FCB3D14656}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{90159ADA-CDDF-4DF5-B46D-974310B1152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C7F185-C65B-424C-B339-DE2D3F390E4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{856B750F-40CB-4B38-85DA-F449F1C1E65A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="229">
   <si>
     <t>Experiment</t>
   </si>
@@ -712,6 +712,15 @@
   </si>
   <si>
     <t>Sample_ID</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Inshore</t>
+  </si>
+  <si>
+    <t>Offshore</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67414201-94BB-4CE0-8BBD-F600EC047100}">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E112" sqref="E112:E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1087,7 @@
     <col min="2" max="2" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,8 +1100,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1117,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1119,8 +1134,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1133,8 +1151,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1147,8 +1168,11 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1161,8 +1185,11 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1189,8 +1219,11 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1203,8 +1236,11 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1217,8 +1253,11 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1231,8 +1270,11 @@
       <c r="D11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1245,8 +1287,11 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1304,11 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1273,8 +1321,11 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1287,8 +1338,11 @@
       <c r="D15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1301,8 +1355,11 @@
       <c r="D16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1315,8 +1372,11 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1329,8 +1389,11 @@
       <c r="D18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1406,11 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1357,8 +1423,11 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1371,8 +1440,11 @@
       <c r="D21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1385,8 +1457,11 @@
       <c r="D22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1399,8 +1474,11 @@
       <c r="D23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1491,11 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1427,8 +1508,11 @@
       <c r="D25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1441,8 +1525,11 @@
       <c r="D26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1455,8 +1542,11 @@
       <c r="D27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1469,8 +1559,11 @@
       <c r="D28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1483,8 +1576,11 @@
       <c r="D29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1497,8 +1593,11 @@
       <c r="D30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1511,8 +1610,11 @@
       <c r="D31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1525,8 +1627,11 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1539,8 +1644,11 @@
       <c r="D33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1553,8 +1661,11 @@
       <c r="D34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1567,8 +1678,11 @@
       <c r="D35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1581,8 +1695,11 @@
       <c r="D36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1595,8 +1712,11 @@
       <c r="D37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1609,8 +1729,11 @@
       <c r="D38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1623,8 +1746,11 @@
       <c r="D39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1637,8 +1763,11 @@
       <c r="D40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1780,11 @@
       <c r="D41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1665,8 +1797,11 @@
       <c r="D42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1679,8 +1814,11 @@
       <c r="D43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1693,8 +1831,11 @@
       <c r="D44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +1848,11 @@
       <c r="D45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1721,8 +1865,11 @@
       <c r="D46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1735,8 +1882,11 @@
       <c r="D47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1749,8 +1899,11 @@
       <c r="D48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +1916,11 @@
       <c r="D49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1777,8 +1933,11 @@
       <c r="D50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1950,11 @@
       <c r="D51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1805,8 +1967,11 @@
       <c r="D52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1819,8 +1984,11 @@
       <c r="D53" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1833,8 +2001,11 @@
       <c r="D54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1847,8 +2018,11 @@
       <c r="D55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1861,8 +2035,11 @@
       <c r="D56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +2052,11 @@
       <c r="D57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1889,8 +2069,11 @@
       <c r="D58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1903,8 +2086,11 @@
       <c r="D59" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2103,11 @@
       <c r="D60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1931,8 +2120,11 @@
       <c r="D61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1945,8 +2137,11 @@
       <c r="D62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1959,8 +2154,11 @@
       <c r="D63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1973,8 +2171,11 @@
       <c r="D64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -1987,8 +2188,11 @@
       <c r="D65" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2205,11 @@
       <c r="D66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2015,8 +2222,11 @@
       <c r="D67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -2029,8 +2239,11 @@
       <c r="D68" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -2043,8 +2256,11 @@
       <c r="D69" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -2057,8 +2273,11 @@
       <c r="D70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2071,8 +2290,11 @@
       <c r="D71" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -2085,8 +2307,11 @@
       <c r="D72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2324,11 @@
       <c r="D73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2113,8 +2341,11 @@
       <c r="D74" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2358,11 @@
       <c r="D75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2141,8 +2375,11 @@
       <c r="D76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2155,8 +2392,11 @@
       <c r="D77" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2169,8 +2409,11 @@
       <c r="D78" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2426,11 @@
       <c r="D79" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2443,11 @@
       <c r="D80" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -2211,8 +2460,11 @@
       <c r="D81" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -2225,8 +2477,11 @@
       <c r="D82" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -2239,8 +2494,11 @@
       <c r="D83" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2511,11 @@
       <c r="D84" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2528,11 @@
       <c r="D85" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -2281,8 +2545,11 @@
       <c r="D86" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -2295,8 +2562,11 @@
       <c r="D87" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2309,8 +2579,11 @@
       <c r="D88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2596,11 @@
       <c r="D89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -2337,8 +2613,11 @@
       <c r="D90" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -2351,8 +2630,11 @@
       <c r="D91" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2647,11 @@
       <c r="D92" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -2379,8 +2664,11 @@
       <c r="D93" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2681,11 @@
       <c r="D94" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -2407,8 +2698,11 @@
       <c r="D95" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -2421,8 +2715,11 @@
       <c r="D96" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2732,11 @@
       <c r="D97" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -2449,8 +2749,11 @@
       <c r="D98" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2463,8 +2766,11 @@
       <c r="D99" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2783,11 @@
       <c r="D100" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -2491,8 +2800,11 @@
       <c r="D101" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -2505,8 +2817,11 @@
       <c r="D102" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -2519,8 +2834,11 @@
       <c r="D103" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -2533,8 +2851,11 @@
       <c r="D104" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +2868,11 @@
       <c r="D105" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -2561,8 +2885,11 @@
       <c r="D106" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2902,11 @@
       <c r="D107" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2919,11 @@
       <c r="D108" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -2603,8 +2936,11 @@
       <c r="D109" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2953,11 @@
       <c r="D110" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -2631,8 +2970,11 @@
       <c r="D111" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -2645,8 +2987,11 @@
       <c r="D112" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2659,8 +3004,11 @@
       <c r="D113" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2673,8 +3021,11 @@
       <c r="D114" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2687,8 +3038,11 @@
       <c r="D115" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2701,8 +3055,11 @@
       <c r="D116" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -2715,8 +3072,11 @@
       <c r="D117" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -2729,8 +3089,11 @@
       <c r="D118" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -2743,8 +3106,11 @@
       <c r="D119" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -2757,8 +3123,11 @@
       <c r="D120" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -2771,8 +3140,11 @@
       <c r="D121" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>114</v>
       </c>
@@ -2785,8 +3157,11 @@
       <c r="D122" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -2799,8 +3174,11 @@
       <c r="D123" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -2813,8 +3191,11 @@
       <c r="D124" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>114</v>
       </c>
@@ -2827,8 +3208,11 @@
       <c r="D125" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>114</v>
       </c>
@@ -2841,8 +3225,11 @@
       <c r="D126" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>114</v>
       </c>
@@ -2855,8 +3242,11 @@
       <c r="D127" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>114</v>
       </c>
@@ -2869,8 +3259,11 @@
       <c r="D128" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>114</v>
       </c>
@@ -2883,8 +3276,11 @@
       <c r="D129" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>114</v>
       </c>
@@ -2897,8 +3293,11 @@
       <c r="D130" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>114</v>
       </c>
@@ -2911,8 +3310,11 @@
       <c r="D131" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>114</v>
       </c>
@@ -2925,8 +3327,11 @@
       <c r="D132" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>114</v>
       </c>
@@ -2939,8 +3344,11 @@
       <c r="D133" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>114</v>
       </c>
@@ -2953,8 +3361,11 @@
       <c r="D134" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>114</v>
       </c>
@@ -2967,8 +3378,11 @@
       <c r="D135" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>114</v>
       </c>
@@ -2981,8 +3395,11 @@
       <c r="D136" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>114</v>
       </c>
@@ -2995,8 +3412,11 @@
       <c r="D137" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>114</v>
       </c>
@@ -3009,8 +3429,11 @@
       <c r="D138" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>114</v>
       </c>
@@ -3023,8 +3446,11 @@
       <c r="D139" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>114</v>
       </c>
@@ -3037,8 +3463,11 @@
       <c r="D140" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>114</v>
       </c>
@@ -3051,8 +3480,11 @@
       <c r="D141" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>114</v>
       </c>
@@ -3065,8 +3497,11 @@
       <c r="D142" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>114</v>
       </c>
@@ -3079,8 +3514,11 @@
       <c r="D143" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>114</v>
       </c>
@@ -3093,8 +3531,11 @@
       <c r="D144" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>114</v>
       </c>
@@ -3107,8 +3548,11 @@
       <c r="D145" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>114</v>
       </c>
@@ -3121,8 +3565,11 @@
       <c r="D146" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>114</v>
       </c>
@@ -3135,8 +3582,11 @@
       <c r="D147" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>114</v>
       </c>
@@ -3149,8 +3599,11 @@
       <c r="D148" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>114</v>
       </c>
@@ -3163,8 +3616,11 @@
       <c r="D149" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>114</v>
       </c>
@@ -3177,8 +3633,11 @@
       <c r="D150" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>114</v>
       </c>
@@ -3191,8 +3650,11 @@
       <c r="D151" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>114</v>
       </c>
@@ -3205,8 +3667,11 @@
       <c r="D152" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>114</v>
       </c>
@@ -3219,8 +3684,11 @@
       <c r="D153" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>114</v>
       </c>
@@ -3233,8 +3701,11 @@
       <c r="D154" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>114</v>
       </c>
@@ -3247,8 +3718,11 @@
       <c r="D155" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>114</v>
       </c>
@@ -3261,8 +3735,11 @@
       <c r="D156" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>114</v>
       </c>
@@ -3275,8 +3752,11 @@
       <c r="D157" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>114</v>
       </c>
@@ -3289,8 +3769,11 @@
       <c r="D158" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>114</v>
       </c>
@@ -3303,8 +3786,11 @@
       <c r="D159" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>114</v>
       </c>
@@ -3317,8 +3803,11 @@
       <c r="D160" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>114</v>
       </c>
@@ -3331,8 +3820,11 @@
       <c r="D161" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>114</v>
       </c>
@@ -3345,8 +3837,11 @@
       <c r="D162" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>114</v>
       </c>
@@ -3359,8 +3854,11 @@
       <c r="D163" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>114</v>
       </c>
@@ -3373,8 +3871,11 @@
       <c r="D164" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>114</v>
       </c>
@@ -3387,8 +3888,11 @@
       <c r="D165" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>114</v>
       </c>
@@ -3401,8 +3905,11 @@
       <c r="D166" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>114</v>
       </c>
@@ -3415,8 +3922,11 @@
       <c r="D167" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>114</v>
       </c>
@@ -3429,8 +3939,11 @@
       <c r="D168" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>114</v>
       </c>
@@ -3443,8 +3956,11 @@
       <c r="D169" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>114</v>
       </c>
@@ -3457,8 +3973,11 @@
       <c r="D170" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>114</v>
       </c>
@@ -3471,8 +3990,11 @@
       <c r="D171" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>114</v>
       </c>
@@ -3485,8 +4007,11 @@
       <c r="D172" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>114</v>
       </c>
@@ -3499,8 +4024,11 @@
       <c r="D173" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>114</v>
       </c>
@@ -3513,8 +4041,11 @@
       <c r="D174" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>114</v>
       </c>
@@ -3527,8 +4058,11 @@
       <c r="D175" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>114</v>
       </c>
@@ -3541,8 +4075,11 @@
       <c r="D176" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>114</v>
       </c>
@@ -3555,8 +4092,11 @@
       <c r="D177" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>114</v>
       </c>
@@ -3569,8 +4109,11 @@
       <c r="D178" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>114</v>
       </c>
@@ -3583,8 +4126,11 @@
       <c r="D179" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>114</v>
       </c>
@@ -3597,8 +4143,11 @@
       <c r="D180" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>114</v>
       </c>
@@ -3611,8 +4160,11 @@
       <c r="D181" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>114</v>
       </c>
@@ -3625,8 +4177,11 @@
       <c r="D182" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>114</v>
       </c>
@@ -3639,8 +4194,11 @@
       <c r="D183" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>114</v>
       </c>
@@ -3653,8 +4211,11 @@
       <c r="D184" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>114</v>
       </c>
@@ -3667,8 +4228,11 @@
       <c r="D185" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>114</v>
       </c>
@@ -3681,8 +4245,11 @@
       <c r="D186" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>114</v>
       </c>
@@ -3695,8 +4262,11 @@
       <c r="D187" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>114</v>
       </c>
@@ -3709,8 +4279,11 @@
       <c r="D188" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>114</v>
       </c>
@@ -3723,8 +4296,11 @@
       <c r="D189" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>114</v>
       </c>
@@ -3737,8 +4313,11 @@
       <c r="D190" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>114</v>
       </c>
@@ -3751,8 +4330,11 @@
       <c r="D191" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>114</v>
       </c>
@@ -3765,8 +4347,11 @@
       <c r="D192" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>114</v>
       </c>
@@ -3779,8 +4364,11 @@
       <c r="D193" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>114</v>
       </c>
@@ -3793,8 +4381,11 @@
       <c r="D194" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>114</v>
       </c>
@@ -3807,8 +4398,11 @@
       <c r="D195" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>114</v>
       </c>
@@ -3821,8 +4415,11 @@
       <c r="D196" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>114</v>
       </c>
@@ -3835,8 +4432,11 @@
       <c r="D197" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>114</v>
       </c>
@@ -3849,8 +4449,11 @@
       <c r="D198" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -3863,8 +4466,11 @@
       <c r="D199" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>114</v>
       </c>
@@ -3877,8 +4483,11 @@
       <c r="D200" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>114</v>
       </c>
@@ -3891,8 +4500,11 @@
       <c r="D201" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>114</v>
       </c>
@@ -3905,8 +4517,11 @@
       <c r="D202" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>114</v>
       </c>
@@ -3919,8 +4534,11 @@
       <c r="D203" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>114</v>
       </c>
@@ -3933,8 +4551,11 @@
       <c r="D204" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>114</v>
       </c>
@@ -3947,8 +4568,11 @@
       <c r="D205" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>114</v>
       </c>
@@ -3961,8 +4585,11 @@
       <c r="D206" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>114</v>
       </c>
@@ -3975,8 +4602,11 @@
       <c r="D207" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>114</v>
       </c>
@@ -3989,8 +4619,11 @@
       <c r="D208" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>114</v>
       </c>
@@ -4003,8 +4636,11 @@
       <c r="D209" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>114</v>
       </c>
@@ -4017,8 +4653,11 @@
       <c r="D210" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>114</v>
       </c>
@@ -4031,8 +4670,11 @@
       <c r="D211" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>114</v>
       </c>
@@ -4045,8 +4687,11 @@
       <c r="D212" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>114</v>
       </c>
@@ -4059,8 +4704,11 @@
       <c r="D213" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>114</v>
       </c>
@@ -4073,8 +4721,11 @@
       <c r="D214" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>114</v>
       </c>
@@ -4087,8 +4738,11 @@
       <c r="D215" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>114</v>
       </c>
@@ -4101,8 +4755,11 @@
       <c r="D216" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E216" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>114</v>
       </c>
@@ -4115,8 +4772,11 @@
       <c r="D217" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>114</v>
       </c>
@@ -4129,8 +4789,11 @@
       <c r="D218" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>114</v>
       </c>
@@ -4143,8 +4806,11 @@
       <c r="D219" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>114</v>
       </c>
@@ -4157,8 +4823,11 @@
       <c r="D220" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>114</v>
       </c>
@@ -4170,6 +4839,9 @@
       </c>
       <c r="D221" t="s">
         <v>224</v>
+      </c>
+      <c r="E221" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
